--- a/src/full/quantity/server0901/summary.xlsx
+++ b/src/full/quantity/server0901/summary.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Dropbox\USC\publication\TBsimulationCode\src\full\quantity\server0901\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{19E51BF7-4C42-40F4-8174-E58964045518}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{570B9E21-E93B-418A-BF36-BFC8488F2B86}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
   <si>
     <t>rmse</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Matern</t>
+  </si>
+  <si>
+    <t>flu</t>
+  </si>
+  <si>
+    <t>flu 2</t>
   </si>
 </sst>
 </file>
@@ -608,10 +614,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12812012956211799"/>
+          <c:x val="0.1193046364626127"/>
           <c:y val="4.1310796495987435E-2"/>
-          <c:w val="0.82808245354872811"/>
-          <c:h val="0.80732827618379333"/>
+          <c:w val="0.83689779624775229"/>
+          <c:h val="0.77138930141582263"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4472,20 +4478,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4552,7 +4544,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -4598,20 +4590,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4619,7 +4597,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4632,7 +4610,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1">
+                  <a:rPr lang="en-US" sz="1600" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -4640,14 +4618,14 @@
                   <a:t>Average RMSE Improvement</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t> (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1800" b="1">
+                <a:endParaRPr lang="en-US" sz="1600" b="1">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -4676,7 +4654,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4693,7 +4671,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -4775,7 +4753,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4822,7 +4800,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -7857,10 +7835,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13473163103071412"/>
+          <c:x val="0.11710078009574107"/>
           <c:y val="4.1310796495987435E-2"/>
-          <c:w val="0.82147080167965092"/>
-          <c:h val="0.79809040313496071"/>
+          <c:w val="0.83910165261462377"/>
+          <c:h val="0.79988251468566429"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -11721,20 +11699,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -11801,7 +11765,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -11847,20 +11811,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -11868,7 +11818,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -11881,7 +11831,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1">
+                  <a:rPr lang="en-US" sz="1600" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -11889,14 +11839,14 @@
                   <a:t>Average RMSE Improvement</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t> (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1800" b="1">
+                <a:endParaRPr lang="en-US" sz="1600" b="1">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -11925,7 +11875,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -11942,7 +11892,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -12024,7 +11974,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12071,7 +12021,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -12097,10 +12047,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12591620556322761"/>
+          <c:x val="0.11264915794619937"/>
           <c:y val="4.1310796495987435E-2"/>
-          <c:w val="0.8302862271471374"/>
-          <c:h val="0.80424898516751575"/>
+          <c:w val="0.84355321493090718"/>
+          <c:h val="0.80424894256638968"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -15961,20 +15911,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -16028,7 +15964,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -16074,20 +16010,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -16095,7 +16017,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -16108,7 +16030,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1">
+                  <a:rPr lang="en-US" sz="1600" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -16116,14 +16038,14 @@
                   <a:t>Average RMSE Improvement</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t> (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1800" b="1">
+                <a:endParaRPr lang="en-US" sz="1600" b="1">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -16152,7 +16074,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -16169,7 +16091,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -16251,7 +16173,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -16298,7 +16220,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -20544,6 +20466,1588 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12591620556322761"/>
+          <c:y val="4.1310796495987435E-2"/>
+          <c:w val="0.8302862271471374"/>
+          <c:h val="0.80424898516751575"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Flu</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Flu Prevention - J=5</c:name>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$B$101:$AY$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.82974449573081088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3224896034343061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3224383203602557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.888338112856137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8956654469500815</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0019368494204723</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5005260969252863</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3494841769856389</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.46454770625178332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8957653752969428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.7860485569660955</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.93314119160722</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.6866195562562227</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.065183039870047</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.922862993925847</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.777649836380725</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6575581860034196</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9182839098145008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.238195711540438</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.741159980341864</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.8363859545619974</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.3739387618764436</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.690059421914789</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.5967381992242178</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.636852730397305</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.692751696393389</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.1152986664356774E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.792782610122599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.5410684898318983</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.875713361077935</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.075934583893805</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.106401827253755</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66543348605299091</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.377326150333243</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.4148177330005911</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.237738145180817</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.2883893034827434</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.262494761513221</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.232070595227528</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.3992551028472029</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.286610691484004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.495642207697212</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.416362825601912</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.0474521840129452</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.219766310092943</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22.426494879354376</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.861281066850848</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.439929146589936</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.198896046512877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4757-4108-A212-D1ED202440DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="811510111"/>
+        <c:axId val="812423631"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="811510111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t># Previous Samples</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="812423631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="812423631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="18"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Average RMSE Improvement</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="8.0331073427257246E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="811510111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14765855011239667"/>
+          <c:y val="3.5512427787257661E-2"/>
+          <c:w val="0.49767484476695173"/>
+          <c:h val="9.2904634599689742E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12591620556322761"/>
+          <c:y val="4.1310796495987435E-2"/>
+          <c:w val="0.8302862271471374"/>
+          <c:h val="0.80424898516751575"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Flu</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Flu</c:name>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$B$104:$GS$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15657514863636202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74497617093980395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99572212013008254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2617734843820356</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3419467755766865</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4522460361735146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9049405528717838</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3384015541735739</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1298654807577524</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7044982492773197</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9838172396103904</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.170510591655745</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8373292010621016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9266762952117071</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2187215457969476</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.935226740813579</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.4876267808261296</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4107405381615052</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.102708385936833</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.267437475623955</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.649469176773966</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.441377664818811</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.499933572038243</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.523426355419719</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.836097107555776</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.037529330699456</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.45257154488983</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.697023168585858</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.0785149812777162</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.449916075669297</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.757243582557944</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.5028252479429005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.8763797080209956</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.076685590144409</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.7382887755502061</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.815991798856931</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.0213440123809256</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.4511949862043867</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.511603472772535</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9886177989174154</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.06530868766802</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.8730043191657542</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.921728276225641</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.031469457890978</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.054552094532655</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.643527187404736</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.920665575233613</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.4027827216782498</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.1593582458692842</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.6384985550874891</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.186128555972484</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.6390326510874518</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.544845173737484</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.208113529742489</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.6920691582200051</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.433366480200037</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17.884592816419985</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.50593493298752</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.006651313322502</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.5948339650525405</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.447771121069987</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.160392332405003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.3993828577875398</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17.664477189219994</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.5003668516825144</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.6798756065949734</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.5221791648425</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.1018651275849951</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>21.021609200247539</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13.20895224263252</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.3578506859750075</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.1288883345300498</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.6444519653724665</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.4471612039975081</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.6248752222899814</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.7184505368350003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.0691377872800008</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12.975347647087476</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.9221239047525103</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.9514264916175472</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.1735464465400236</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.074867807504992</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.855585836397494</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1899004045250026</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13.881495263642529</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-1.3090141377899989</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.343859409269978</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.4305765602975278</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.01108625373001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.6541511756524963</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.2271260543925049</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.6110523989850076</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.8171701671475109</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.5066340697925238</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.393243813350046</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.3853285429449995</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.9306974044374998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.642200320172531</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.2505376213650274</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.7738760450650304</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-2.1917402566224653</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.8362582102074576</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.257631099022513</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.7766486049600072</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>18.016433349067441</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-5.1172314643124768</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-3.3120598697449544</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.1469588944549987</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.63132623158503876</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.1827731003724704</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8.6225894608350284</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.2213025828500061</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-2.35790667034248</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.8344313833325048</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-1.3856658941550082</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8.1249474222899956</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-1.6659843470825053</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.6252848305975434</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.9075046563800351</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.3712615637900409</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.3713774279924973</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.676607018227477</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.2093672326124949</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.877958698737512</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9.2578333333450011</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.4355513724700044</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6.2990148374549859</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.7346015361850107</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.2769760442075162</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.9857354701625427</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.82180994090754744</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4.0761423507025274</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5.0449578194950329</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.77316742880751965</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.38404691023752324</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8.4748209305874909</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8.3592793358524773</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>12.632537132557498</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5.1450564655050046</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.4555485661649881</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-2.3879335172050098</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.6214859679199787</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>9.7176994861624788</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.66217630539751049</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>11.206171959667532</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5.8417780271675213</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.4211000945349994</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>10.59321135451501</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9.3969939775575106</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>11.527250476759999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-8.5693922766925326</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>9.7868136560949957</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4.8939276103299845</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.95910195436250678</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.59729767694998159</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>12.565759120190023</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>5.1588256915075181</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-2.5073893940949943</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5.7861934243524926</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4.201057293485011</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.41163328741748995</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.26402158096497</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-1.9922480114074714</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.0986180679899871</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-1.1823869952450217</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.7334356103899706</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.570432691005009</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7.4270415550899749</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>5.5651684759224995</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.0601147749575119</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.36991935758999839</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-3.7524614971874981</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.7001277251099669</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6.8039261224425163</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5.6853160059149754</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7.3684141626175093</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-1.90331908854251</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.710495894867516</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8.4376952779899881</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.95607757842000041</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5.0351447601200139</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>13.969440834522517</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>10.831708142630013</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.004122011997489</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.2444240906974766</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-8.5157314926724741</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6.8976426155175297</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5.7965641009699587</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-1.7085589742599994</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3.4205744561949913</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5.7970426200774972</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>4.0769994354800332</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4.0478262954075195</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.11171029656502629</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.6077277270424961</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>11.005486969860012</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.72614257274250527</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-2.9362518634975077</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-3.7981164054825323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3343-47F0-9128-AEEAA07C9690}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="811510111"/>
+        <c:axId val="812423631"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="811510111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t># Previous Samples</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="812423631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="812423631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="18"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Average RMSE Improvement</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="8.0331073427257246E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="811510111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73388434370025057"/>
+          <c:y val="7.0325187679150483E-2"/>
+          <c:w val="0.12081540603190281"/>
+          <c:h val="9.2904634599689742E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -20705,6 +22209,86 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -23324,6 +24908,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -23331,13 +25947,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23405,15 +26021,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23443,15 +26059,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23511,6 +26127,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6A9640-ED60-419F-BBFB-5FABE7F4B109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9082094C-3B91-41AD-B9B6-DEA893573F9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23816,10 +26508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KQ75"/>
+  <dimension ref="A1:KQ104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W62" sqref="W62"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L119" sqref="L119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45703,6 +48395,2474 @@
         <v>7</v>
       </c>
     </row>
+    <row r="100" spans="1:302" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>-8.2974449573081088E-3</v>
+      </c>
+      <c r="D100">
+        <v>3.224896034343061E-3</v>
+      </c>
+      <c r="E100">
+        <v>4.3224383203602557E-2</v>
+      </c>
+      <c r="F100">
+        <v>2.888338112856137E-2</v>
+      </c>
+      <c r="G100">
+        <v>4.8956654469500815E-2</v>
+      </c>
+      <c r="H100">
+        <v>3.0019368494204723E-2</v>
+      </c>
+      <c r="I100">
+        <v>7.5005260969252863E-2</v>
+      </c>
+      <c r="J100">
+        <v>2.3494841769856389E-2</v>
+      </c>
+      <c r="K100">
+        <v>-4.6454770625178332E-3</v>
+      </c>
+      <c r="L100">
+        <v>1.8957653752969428E-2</v>
+      </c>
+      <c r="M100">
+        <v>6.7860485569660955E-2</v>
+      </c>
+      <c r="N100">
+        <v>0.10933141191607221</v>
+      </c>
+      <c r="O100">
+        <v>5.6866195562562227E-2</v>
+      </c>
+      <c r="P100">
+        <v>5.065183039870047E-2</v>
+      </c>
+      <c r="Q100">
+        <v>0.15922862993925846</v>
+      </c>
+      <c r="R100">
+        <v>0.14777649836380724</v>
+      </c>
+      <c r="S100">
+        <v>5.6575581860034196E-2</v>
+      </c>
+      <c r="T100">
+        <v>2.9182839098145008E-2</v>
+      </c>
+      <c r="U100">
+        <v>0.17238195711540438</v>
+      </c>
+      <c r="V100">
+        <v>0.11741159980341864</v>
+      </c>
+      <c r="W100">
+        <v>8.8363859545619983E-2</v>
+      </c>
+      <c r="X100">
+        <v>9.3739387618764436E-2</v>
+      </c>
+      <c r="Y100">
+        <v>0.11690059421914789</v>
+      </c>
+      <c r="Z100">
+        <v>7.5967381992242178E-2</v>
+      </c>
+      <c r="AA100">
+        <v>0.21636852730397305</v>
+      </c>
+      <c r="AB100">
+        <v>0.11692751696393389</v>
+      </c>
+      <c r="AC100">
+        <v>8.1152986664356774E-4</v>
+      </c>
+      <c r="AD100">
+        <v>0.11792782610122599</v>
+      </c>
+      <c r="AE100">
+        <v>-1.5410684898318983E-2</v>
+      </c>
+      <c r="AF100">
+        <v>0.12875713361077934</v>
+      </c>
+      <c r="AG100">
+        <v>0.20075934583893806</v>
+      </c>
+      <c r="AH100">
+        <v>0.13106401827253755</v>
+      </c>
+      <c r="AI100">
+        <v>6.6543348605299091E-3</v>
+      </c>
+      <c r="AJ100">
+        <v>0.10377326150333244</v>
+      </c>
+      <c r="AK100">
+        <v>9.4148177330005911E-2</v>
+      </c>
+      <c r="AL100">
+        <v>0.21237738145180818</v>
+      </c>
+      <c r="AM100">
+        <v>5.2883893034827434E-2</v>
+      </c>
+      <c r="AN100">
+        <v>0.1126249476151322</v>
+      </c>
+      <c r="AO100">
+        <v>0.11232070595227528</v>
+      </c>
+      <c r="AP100">
+        <v>9.3992551028472038E-2</v>
+      </c>
+      <c r="AQ100">
+        <v>0.16286610691484005</v>
+      </c>
+      <c r="AR100">
+        <v>0.14495642207697212</v>
+      </c>
+      <c r="AS100">
+        <v>0.23416362825601911</v>
+      </c>
+      <c r="AT100">
+        <v>4.0474521840129452E-2</v>
+      </c>
+      <c r="AU100">
+        <v>0.16219766310092942</v>
+      </c>
+      <c r="AV100">
+        <v>0.22426494879354375</v>
+      </c>
+      <c r="AW100">
+        <v>0.11861281066850848</v>
+      </c>
+      <c r="AX100">
+        <v>0.15439929146589937</v>
+      </c>
+      <c r="AY100">
+        <v>0.14198896046512877</v>
+      </c>
+    </row>
+    <row r="101" spans="1:302" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <f>B100*100</f>
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <f>C100*100</f>
+        <v>-0.82974449573081088</v>
+      </c>
+      <c r="D101">
+        <f>D100*100</f>
+        <v>0.3224896034343061</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ref="E101:AY101" si="0">E100*100</f>
+        <v>4.3224383203602557</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="0"/>
+        <v>2.888338112856137</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="0"/>
+        <v>4.8956654469500815</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="0"/>
+        <v>3.0019368494204723</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="0"/>
+        <v>7.5005260969252863</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="0"/>
+        <v>2.3494841769856389</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="0"/>
+        <v>-0.46454770625178332</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="0"/>
+        <v>1.8957653752969428</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="0"/>
+        <v>6.7860485569660955</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="0"/>
+        <v>10.93314119160722</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="0"/>
+        <v>5.6866195562562227</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="0"/>
+        <v>5.065183039870047</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="0"/>
+        <v>15.922862993925847</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="0"/>
+        <v>14.777649836380725</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="0"/>
+        <v>5.6575581860034196</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="0"/>
+        <v>2.9182839098145008</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="0"/>
+        <v>17.238195711540438</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="0"/>
+        <v>11.741159980341864</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="0"/>
+        <v>8.8363859545619974</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="0"/>
+        <v>9.3739387618764436</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" si="0"/>
+        <v>11.690059421914789</v>
+      </c>
+      <c r="Z101">
+        <f t="shared" si="0"/>
+        <v>7.5967381992242178</v>
+      </c>
+      <c r="AA101">
+        <f t="shared" si="0"/>
+        <v>21.636852730397305</v>
+      </c>
+      <c r="AB101">
+        <f t="shared" si="0"/>
+        <v>11.692751696393389</v>
+      </c>
+      <c r="AC101">
+        <f t="shared" si="0"/>
+        <v>8.1152986664356774E-2</v>
+      </c>
+      <c r="AD101">
+        <f t="shared" si="0"/>
+        <v>11.792782610122599</v>
+      </c>
+      <c r="AE101">
+        <f t="shared" si="0"/>
+        <v>-1.5410684898318983</v>
+      </c>
+      <c r="AF101">
+        <f t="shared" si="0"/>
+        <v>12.875713361077935</v>
+      </c>
+      <c r="AG101">
+        <f t="shared" si="0"/>
+        <v>20.075934583893805</v>
+      </c>
+      <c r="AH101">
+        <f t="shared" si="0"/>
+        <v>13.106401827253755</v>
+      </c>
+      <c r="AI101">
+        <f t="shared" si="0"/>
+        <v>0.66543348605299091</v>
+      </c>
+      <c r="AJ101">
+        <f t="shared" si="0"/>
+        <v>10.377326150333243</v>
+      </c>
+      <c r="AK101">
+        <f t="shared" si="0"/>
+        <v>9.4148177330005911</v>
+      </c>
+      <c r="AL101">
+        <f t="shared" si="0"/>
+        <v>21.237738145180817</v>
+      </c>
+      <c r="AM101">
+        <f t="shared" si="0"/>
+        <v>5.2883893034827434</v>
+      </c>
+      <c r="AN101">
+        <f t="shared" si="0"/>
+        <v>11.262494761513221</v>
+      </c>
+      <c r="AO101">
+        <f t="shared" si="0"/>
+        <v>11.232070595227528</v>
+      </c>
+      <c r="AP101">
+        <f t="shared" si="0"/>
+        <v>9.3992551028472029</v>
+      </c>
+      <c r="AQ101">
+        <f t="shared" si="0"/>
+        <v>16.286610691484004</v>
+      </c>
+      <c r="AR101">
+        <f t="shared" si="0"/>
+        <v>14.495642207697212</v>
+      </c>
+      <c r="AS101">
+        <f t="shared" si="0"/>
+        <v>23.416362825601912</v>
+      </c>
+      <c r="AT101">
+        <f t="shared" si="0"/>
+        <v>4.0474521840129452</v>
+      </c>
+      <c r="AU101">
+        <f t="shared" si="0"/>
+        <v>16.219766310092943</v>
+      </c>
+      <c r="AV101">
+        <f t="shared" si="0"/>
+        <v>22.426494879354376</v>
+      </c>
+      <c r="AW101">
+        <f t="shared" si="0"/>
+        <v>11.861281066850848</v>
+      </c>
+      <c r="AX101">
+        <f t="shared" si="0"/>
+        <v>15.439929146589936</v>
+      </c>
+      <c r="AY101">
+        <f t="shared" si="0"/>
+        <v>14.198896046512877</v>
+      </c>
+    </row>
+    <row r="103" spans="1:302" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>1.5657514863636202E-3</v>
+      </c>
+      <c r="D103">
+        <v>7.4497617093980395E-3</v>
+      </c>
+      <c r="E103">
+        <v>9.9572212013008254E-3</v>
+      </c>
+      <c r="F103">
+        <v>3.2617734843820356E-2</v>
+      </c>
+      <c r="G103">
+        <v>2.3419467755766865E-2</v>
+      </c>
+      <c r="H103">
+        <v>6.4522460361735146E-2</v>
+      </c>
+      <c r="I103">
+        <v>4.9049405528717838E-2</v>
+      </c>
+      <c r="J103">
+        <v>1.3384015541735739E-2</v>
+      </c>
+      <c r="K103">
+        <v>1.1298654807577524E-2</v>
+      </c>
+      <c r="L103">
+        <v>1.7044982492773197E-2</v>
+      </c>
+      <c r="M103">
+        <v>6.9838172396103904E-2</v>
+      </c>
+      <c r="N103">
+        <v>9.170510591655745E-2</v>
+      </c>
+      <c r="O103">
+        <v>4.8373292010621016E-2</v>
+      </c>
+      <c r="P103">
+        <v>4.9266762952117071E-2</v>
+      </c>
+      <c r="Q103">
+        <v>8.2187215457969476E-2</v>
+      </c>
+      <c r="R103">
+        <v>0.14935226740813579</v>
+      </c>
+      <c r="S103">
+        <v>9.4876267808261305E-2</v>
+      </c>
+      <c r="T103">
+        <v>3.4107405381615052E-2</v>
+      </c>
+      <c r="U103">
+        <v>0.11102708385936833</v>
+      </c>
+      <c r="V103">
+        <v>0.13267437475623955</v>
+      </c>
+      <c r="W103">
+        <v>0.14649469176773966</v>
+      </c>
+      <c r="X103">
+        <v>0.14441377664818811</v>
+      </c>
+      <c r="Y103">
+        <v>8.499933572038243E-2</v>
+      </c>
+      <c r="Z103">
+        <v>0.11523426355419719</v>
+      </c>
+      <c r="AA103">
+        <v>0.10836097107555775</v>
+      </c>
+      <c r="AB103">
+        <v>0.10037529330699457</v>
+      </c>
+      <c r="AC103">
+        <v>7.45257154488983E-2</v>
+      </c>
+      <c r="AD103">
+        <v>0.16697023168585856</v>
+      </c>
+      <c r="AE103">
+        <v>6.0785149812777162E-2</v>
+      </c>
+      <c r="AF103">
+        <v>0.10449916075669297</v>
+      </c>
+      <c r="AG103">
+        <v>0.14757243582557944</v>
+      </c>
+      <c r="AH103">
+        <v>6.5028252479429005E-2</v>
+      </c>
+      <c r="AI103">
+        <v>5.8763797080209956E-2</v>
+      </c>
+      <c r="AJ103">
+        <v>0.12076685590144409</v>
+      </c>
+      <c r="AK103">
+        <v>8.738288775550207E-2</v>
+      </c>
+      <c r="AL103">
+        <v>0.14815991798856931</v>
+      </c>
+      <c r="AM103">
+        <v>8.0213440123809265E-2</v>
+      </c>
+      <c r="AN103">
+        <v>3.4511949862043867E-2</v>
+      </c>
+      <c r="AO103">
+        <v>0.11511603472772536</v>
+      </c>
+      <c r="AP103">
+        <v>3.9886177989174154E-2</v>
+      </c>
+      <c r="AQ103">
+        <v>0.1306530868766802</v>
+      </c>
+      <c r="AR103">
+        <v>6.8730043191657542E-2</v>
+      </c>
+      <c r="AS103">
+        <v>0.12921728276225641</v>
+      </c>
+      <c r="AT103">
+        <v>0.14031469457890977</v>
+      </c>
+      <c r="AU103">
+        <v>0.11054552094532655</v>
+      </c>
+      <c r="AV103">
+        <v>0.14643527187404737</v>
+      </c>
+      <c r="AW103">
+        <v>0.10920665575233612</v>
+      </c>
+      <c r="AX103">
+        <v>9.4027827216782489E-2</v>
+      </c>
+      <c r="AY103">
+        <v>6.1593582458692842E-2</v>
+      </c>
+      <c r="AZ103">
+        <v>4.6384985550874891E-2</v>
+      </c>
+      <c r="BA103">
+        <v>0.21186128555972483</v>
+      </c>
+      <c r="BB103">
+        <v>7.6390326510874518E-2</v>
+      </c>
+      <c r="BC103">
+        <v>0.11544845173737484</v>
+      </c>
+      <c r="BD103">
+        <v>8.208113529742489E-2</v>
+      </c>
+      <c r="BE103">
+        <v>7.6920691582200051E-2</v>
+      </c>
+      <c r="BF103">
+        <v>0.13433366480200037</v>
+      </c>
+      <c r="BG103">
+        <v>0.17884592816419986</v>
+      </c>
+      <c r="BH103">
+        <v>3.50593493298752E-2</v>
+      </c>
+      <c r="BI103">
+        <v>0.11006651313322502</v>
+      </c>
+      <c r="BJ103">
+        <v>9.5948339650525405E-2</v>
+      </c>
+      <c r="BK103">
+        <v>0.15447771121069986</v>
+      </c>
+      <c r="BL103">
+        <v>0.15160392332405004</v>
+      </c>
+      <c r="BM103">
+        <v>8.3993828577875407E-2</v>
+      </c>
+      <c r="BN103">
+        <v>0.17664477189219996</v>
+      </c>
+      <c r="BO103">
+        <v>5.5003668516825144E-2</v>
+      </c>
+      <c r="BP103">
+        <v>3.6798756065949734E-2</v>
+      </c>
+      <c r="BQ103">
+        <v>5.5221791648425E-2</v>
+      </c>
+      <c r="BR103">
+        <v>8.1018651275849951E-2</v>
+      </c>
+      <c r="BS103">
+        <v>0.21021609200247537</v>
+      </c>
+      <c r="BT103">
+        <v>0.13208952242632521</v>
+      </c>
+      <c r="BU103">
+        <v>5.3578506859750075E-2</v>
+      </c>
+      <c r="BV103">
+        <v>9.1288883345300498E-2</v>
+      </c>
+      <c r="BW103">
+        <v>6.6444519653724665E-2</v>
+      </c>
+      <c r="BX103">
+        <v>5.4471612039975081E-2</v>
+      </c>
+      <c r="BY103">
+        <v>4.6248752222899814E-2</v>
+      </c>
+      <c r="BZ103">
+        <v>9.7184505368349994E-2</v>
+      </c>
+      <c r="CA103">
+        <v>8.0691377872800008E-2</v>
+      </c>
+      <c r="CB103">
+        <v>0.12975347647087476</v>
+      </c>
+      <c r="CC103">
+        <v>9.9221239047525112E-2</v>
+      </c>
+      <c r="CD103">
+        <v>1.9514264916175472E-2</v>
+      </c>
+      <c r="CE103">
+        <v>6.1735464465400236E-2</v>
+      </c>
+      <c r="CF103">
+        <v>7.074867807504992E-2</v>
+      </c>
+      <c r="CG103">
+        <v>7.855585836397494E-2</v>
+      </c>
+      <c r="CH103">
+        <v>2.1899004045250026E-2</v>
+      </c>
+      <c r="CI103">
+        <v>0.13881495263642529</v>
+      </c>
+      <c r="CJ103">
+        <v>-1.3090141377899989E-2</v>
+      </c>
+      <c r="CK103">
+        <v>3.343859409269978E-2</v>
+      </c>
+      <c r="CL103">
+        <v>4.4305765602975278E-2</v>
+      </c>
+      <c r="CM103">
+        <v>2.01108625373001E-2</v>
+      </c>
+      <c r="CN103">
+        <v>-1.6541511756524963E-2</v>
+      </c>
+      <c r="CO103">
+        <v>4.2271260543925049E-2</v>
+      </c>
+      <c r="CP103">
+        <v>7.6110523989850076E-2</v>
+      </c>
+      <c r="CQ103">
+        <v>4.8171701671475109E-2</v>
+      </c>
+      <c r="CR103">
+        <v>2.5066340697925238E-2</v>
+      </c>
+      <c r="CS103">
+        <v>5.393243813350046E-2</v>
+      </c>
+      <c r="CT103">
+        <v>4.3853285429449995E-2</v>
+      </c>
+      <c r="CU103">
+        <v>3.9306974044374998E-2</v>
+      </c>
+      <c r="CV103">
+        <v>6.642200320172531E-2</v>
+      </c>
+      <c r="CW103">
+        <v>7.2505376213650274E-2</v>
+      </c>
+      <c r="CX103">
+        <v>6.7738760450650304E-2</v>
+      </c>
+      <c r="CY103">
+        <v>-2.1917402566224653E-2</v>
+      </c>
+      <c r="CZ103">
+        <v>6.8362582102074576E-2</v>
+      </c>
+      <c r="DA103">
+        <v>0.10257631099022513</v>
+      </c>
+      <c r="DB103">
+        <v>1.7766486049600072E-2</v>
+      </c>
+      <c r="DC103">
+        <v>0.1801643334906744</v>
+      </c>
+      <c r="DD103">
+        <v>-5.1172314643124772E-2</v>
+      </c>
+      <c r="DE103">
+        <v>-3.3120598697449544E-2</v>
+      </c>
+      <c r="DF103">
+        <v>3.1469588944549987E-2</v>
+      </c>
+      <c r="DG103">
+        <v>6.3132623158503876E-3</v>
+      </c>
+      <c r="DH103">
+        <v>2.1827731003724704E-2</v>
+      </c>
+      <c r="DI103">
+        <v>8.6225894608350284E-2</v>
+      </c>
+      <c r="DJ103">
+        <v>4.2213025828500061E-2</v>
+      </c>
+      <c r="DK103">
+        <v>-2.35790667034248E-2</v>
+      </c>
+      <c r="DL103">
+        <v>4.8344313833325048E-2</v>
+      </c>
+      <c r="DM103">
+        <v>-1.3856658941550082E-2</v>
+      </c>
+      <c r="DN103">
+        <v>8.1249474222899964E-2</v>
+      </c>
+      <c r="DO103">
+        <v>-1.6659843470825053E-2</v>
+      </c>
+      <c r="DP103">
+        <v>5.6252848305975434E-2</v>
+      </c>
+      <c r="DQ103">
+        <v>4.9075046563800351E-2</v>
+      </c>
+      <c r="DR103">
+        <v>4.3712615637900409E-2</v>
+      </c>
+      <c r="DS103">
+        <v>6.3713774279924973E-2</v>
+      </c>
+      <c r="DT103">
+        <v>7.676607018227477E-2</v>
+      </c>
+      <c r="DU103">
+        <v>6.2093672326124949E-2</v>
+      </c>
+      <c r="DV103">
+        <v>0.12877958698737513</v>
+      </c>
+      <c r="DW103">
+        <v>9.2578333333450002E-2</v>
+      </c>
+      <c r="DX103">
+        <v>5.4355513724700044E-2</v>
+      </c>
+      <c r="DY103">
+        <v>6.2990148374549859E-2</v>
+      </c>
+      <c r="DZ103">
+        <v>2.7346015361850107E-2</v>
+      </c>
+      <c r="EA103">
+        <v>6.2769760442075162E-2</v>
+      </c>
+      <c r="EB103">
+        <v>2.9857354701625427E-2</v>
+      </c>
+      <c r="EC103">
+        <v>8.2180994090754744E-3</v>
+      </c>
+      <c r="ED103">
+        <v>4.0761423507025274E-2</v>
+      </c>
+      <c r="EE103">
+        <v>5.0449578194950329E-2</v>
+      </c>
+      <c r="EF103">
+        <v>-7.7316742880751965E-3</v>
+      </c>
+      <c r="EG103">
+        <v>3.8404691023752324E-3</v>
+      </c>
+      <c r="EH103">
+        <v>8.47482093058749E-2</v>
+      </c>
+      <c r="EI103">
+        <v>8.3592793358524764E-2</v>
+      </c>
+      <c r="EJ103">
+        <v>0.12632537132557498</v>
+      </c>
+      <c r="EK103">
+        <v>5.1450564655050046E-2</v>
+      </c>
+      <c r="EL103">
+        <v>1.4555485661649881E-2</v>
+      </c>
+      <c r="EM103">
+        <v>-2.3879335172050098E-2</v>
+      </c>
+      <c r="EN103">
+        <v>2.6214859679199787E-2</v>
+      </c>
+      <c r="EO103">
+        <v>9.7176994861624788E-2</v>
+      </c>
+      <c r="EP103">
+        <v>6.6217630539751049E-3</v>
+      </c>
+      <c r="EQ103">
+        <v>0.11206171959667532</v>
+      </c>
+      <c r="ER103">
+        <v>5.8417780271675213E-2</v>
+      </c>
+      <c r="ES103">
+        <v>1.4211000945349994E-2</v>
+      </c>
+      <c r="ET103">
+        <v>0.10593211354515009</v>
+      </c>
+      <c r="EU103">
+        <v>9.3969939775575106E-2</v>
+      </c>
+      <c r="EV103">
+        <v>0.11527250476759998</v>
+      </c>
+      <c r="EW103">
+        <v>-8.5693922766925334E-2</v>
+      </c>
+      <c r="EX103">
+        <v>9.7868136560949948E-2</v>
+      </c>
+      <c r="EY103">
+        <v>4.8939276103299845E-2</v>
+      </c>
+      <c r="EZ103">
+        <v>9.5910195436250678E-3</v>
+      </c>
+      <c r="FA103">
+        <v>-5.9729767694998159E-3</v>
+      </c>
+      <c r="FB103">
+        <v>0.12565759120190023</v>
+      </c>
+      <c r="FC103">
+        <v>5.1588256915075181E-2</v>
+      </c>
+      <c r="FD103">
+        <v>-2.5073893940949943E-2</v>
+      </c>
+      <c r="FE103">
+        <v>5.7861934243524926E-2</v>
+      </c>
+      <c r="FF103">
+        <v>4.201057293485011E-2</v>
+      </c>
+      <c r="FG103">
+        <v>-4.1163328741748995E-3</v>
+      </c>
+      <c r="FH103">
+        <v>2.26402158096497E-2</v>
+      </c>
+      <c r="FI103">
+        <v>-1.9922480114074714E-2</v>
+      </c>
+      <c r="FJ103">
+        <v>1.0986180679899871E-2</v>
+      </c>
+      <c r="FK103">
+        <v>-1.1823869952450217E-2</v>
+      </c>
+      <c r="FL103">
+        <v>6.7334356103899706E-2</v>
+      </c>
+      <c r="FM103">
+        <v>2.570432691005009E-2</v>
+      </c>
+      <c r="FN103">
+        <v>7.4270415550899749E-2</v>
+      </c>
+      <c r="FO103">
+        <v>5.5651684759224995E-2</v>
+      </c>
+      <c r="FP103">
+        <v>3.0601147749575119E-2</v>
+      </c>
+      <c r="FQ103">
+        <v>-3.6991935758999839E-3</v>
+      </c>
+      <c r="FR103">
+        <v>-3.7524614971874981E-2</v>
+      </c>
+      <c r="FS103">
+        <v>7.001277251099669E-3</v>
+      </c>
+      <c r="FT103">
+        <v>6.8039261224425163E-2</v>
+      </c>
+      <c r="FU103">
+        <v>5.6853160059149754E-2</v>
+      </c>
+      <c r="FV103">
+        <v>7.3684141626175093E-2</v>
+      </c>
+      <c r="FW103">
+        <v>-1.90331908854251E-2</v>
+      </c>
+      <c r="FX103">
+        <v>3.710495894867516E-2</v>
+      </c>
+      <c r="FY103">
+        <v>8.4376952779899872E-2</v>
+      </c>
+      <c r="FZ103">
+        <v>-9.5607757842000041E-3</v>
+      </c>
+      <c r="GA103">
+        <v>5.0351447601200139E-2</v>
+      </c>
+      <c r="GB103">
+        <v>0.13969440834522517</v>
+      </c>
+      <c r="GC103">
+        <v>0.10831708142630014</v>
+      </c>
+      <c r="GD103">
+        <v>2.004122011997489E-2</v>
+      </c>
+      <c r="GE103">
+        <v>7.2444240906974766E-2</v>
+      </c>
+      <c r="GF103">
+        <v>-8.5157314926724736E-2</v>
+      </c>
+      <c r="GG103">
+        <v>6.8976426155175297E-2</v>
+      </c>
+      <c r="GH103">
+        <v>5.7965641009699587E-2</v>
+      </c>
+      <c r="GI103">
+        <v>-1.7085589742599994E-2</v>
+      </c>
+      <c r="GJ103">
+        <v>3.4205744561949913E-2</v>
+      </c>
+      <c r="GK103">
+        <v>5.7970426200774972E-2</v>
+      </c>
+      <c r="GL103">
+        <v>4.0769994354800332E-2</v>
+      </c>
+      <c r="GM103">
+        <v>4.0478262954075195E-2</v>
+      </c>
+      <c r="GN103">
+        <v>-1.1171029656502629E-3</v>
+      </c>
+      <c r="GO103">
+        <v>1.6077277270424961E-2</v>
+      </c>
+      <c r="GP103">
+        <v>0.11005486969860012</v>
+      </c>
+      <c r="GQ103">
+        <v>7.2614257274250527E-3</v>
+      </c>
+      <c r="GR103">
+        <v>-2.9362518634975077E-2</v>
+      </c>
+      <c r="GS103">
+        <v>-3.7981164054825323E-2</v>
+      </c>
+      <c r="GT103">
+        <v>6.9550103600375168E-2</v>
+      </c>
+      <c r="GU103">
+        <v>3.9043118999925408E-2</v>
+      </c>
+      <c r="GV103">
+        <v>5.0194412420599965E-2</v>
+      </c>
+      <c r="GW103">
+        <v>1.3881463771499014E-3</v>
+      </c>
+      <c r="GX103">
+        <v>0.15276748839502519</v>
+      </c>
+      <c r="GY103">
+        <v>5.9720413029874964E-2</v>
+      </c>
+      <c r="GZ103">
+        <v>8.8244041939799844E-2</v>
+      </c>
+      <c r="HA103">
+        <v>-2.7006863612624832E-2</v>
+      </c>
+      <c r="HB103">
+        <v>-8.22817661208749E-2</v>
+      </c>
+      <c r="HC103">
+        <v>-3.1813437078949791E-2</v>
+      </c>
+      <c r="HD103">
+        <v>6.6039390214500227E-2</v>
+      </c>
+      <c r="HE103">
+        <v>5.4150387538849376E-2</v>
+      </c>
+      <c r="HF103">
+        <v>-1.6229512131950008E-2</v>
+      </c>
+      <c r="HG103">
+        <v>3.6137376790299935E-2</v>
+      </c>
+      <c r="HH103">
+        <v>8.5405017776424952E-2</v>
+      </c>
+      <c r="HI103">
+        <v>0.10382057119089971</v>
+      </c>
+      <c r="HJ103">
+        <v>2.5021561280751392E-3</v>
+      </c>
+      <c r="HK103">
+        <v>0.10451288175362494</v>
+      </c>
+      <c r="HL103">
+        <v>5.5216617618124797E-2</v>
+      </c>
+      <c r="HM103">
+        <v>0.21031158802404981</v>
+      </c>
+      <c r="HN103">
+        <v>4.851839186785023E-2</v>
+      </c>
+      <c r="HO103">
+        <v>0.11568151889115019</v>
+      </c>
+      <c r="HP103">
+        <v>3.7674103023600081E-2</v>
+      </c>
+      <c r="HQ103">
+        <v>3.5974342127625292E-2</v>
+      </c>
+      <c r="HR103">
+        <v>-1.5732453744575103E-2</v>
+      </c>
+      <c r="HS103">
+        <v>4.9056242601200006E-2</v>
+      </c>
+      <c r="HT103">
+        <v>0.12190396359597488</v>
+      </c>
+      <c r="HU103">
+        <v>-8.3450191598748447E-3</v>
+      </c>
+      <c r="HV103">
+        <v>0.15151242446672475</v>
+      </c>
+      <c r="HW103">
+        <v>2.1008807621200054E-2</v>
+      </c>
+      <c r="HX103">
+        <v>1.7324210933474804E-2</v>
+      </c>
+      <c r="HY103">
+        <v>0.34489827524402483</v>
+      </c>
+      <c r="HZ103">
+        <v>0.15395321325345002</v>
+      </c>
+      <c r="IA103">
+        <v>0.181201053042225</v>
+      </c>
+      <c r="IB103">
+        <v>0.12159281998952531</v>
+      </c>
+      <c r="IC103">
+        <v>8.992785760572497E-2</v>
+      </c>
+      <c r="ID103">
+        <v>4.0400070602099936E-2</v>
+      </c>
+      <c r="IE103">
+        <v>7.2572253872325021E-2</v>
+      </c>
+      <c r="IF103">
+        <v>4.8427121253324934E-2</v>
+      </c>
+      <c r="IG103">
+        <v>5.9133085469275315E-2</v>
+      </c>
+      <c r="IH103">
+        <v>1.2623802930275208E-2</v>
+      </c>
+      <c r="II103">
+        <v>1.7181851210975152E-2</v>
+      </c>
+      <c r="IJ103">
+        <v>0.15815374974312491</v>
+      </c>
+      <c r="IK103">
+        <v>1.1106040509250015E-3</v>
+      </c>
+      <c r="IL103">
+        <v>-5.20633945117005E-2</v>
+      </c>
+      <c r="IM103">
+        <v>4.4553602701574935E-2</v>
+      </c>
+      <c r="IN103">
+        <v>-1.3251513423825023E-2</v>
+      </c>
+      <c r="IO103">
+        <v>-1.285230252305003E-2</v>
+      </c>
+      <c r="IP103">
+        <v>7.5822515091800158E-2</v>
+      </c>
+      <c r="IQ103">
+        <v>4.8753018534649861E-2</v>
+      </c>
+      <c r="IR103">
+        <v>-3.8372291347752441E-3</v>
+      </c>
+      <c r="IS103">
+        <v>8.7108863542650017E-2</v>
+      </c>
+      <c r="IT103">
+        <v>8.5130212902874369E-2</v>
+      </c>
+      <c r="IU103">
+        <v>9.8451945931574691E-2</v>
+      </c>
+      <c r="IV103">
+        <v>0.11424262653932482</v>
+      </c>
+      <c r="IW103">
+        <v>3.6791641366274996E-2</v>
+      </c>
+      <c r="IX103">
+        <v>8.4197218915749161E-3</v>
+      </c>
+      <c r="IY103">
+        <v>4.2544319313800205E-2</v>
+      </c>
+      <c r="IZ103">
+        <v>-4.6720635662174992E-2</v>
+      </c>
+      <c r="JA103">
+        <v>0.15519509889392524</v>
+      </c>
+      <c r="JB103">
+        <v>7.1746544104624999E-2</v>
+      </c>
+      <c r="JC103">
+        <v>3.6696144180799806E-2</v>
+      </c>
+      <c r="JD103">
+        <v>5.8520185245503065E-3</v>
+      </c>
+      <c r="JE103">
+        <v>2.2254981243450045E-2</v>
+      </c>
+      <c r="JF103">
+        <v>2.4426285558649896E-2</v>
+      </c>
+      <c r="JG103">
+        <v>8.7191210163249933E-2</v>
+      </c>
+      <c r="JH103">
+        <v>-4.4491400609253384E-3</v>
+      </c>
+      <c r="JI103">
+        <v>1.8788309653074986E-2</v>
+      </c>
+      <c r="JJ103">
+        <v>-3.0743299254800016E-2</v>
+      </c>
+      <c r="JK103">
+        <v>5.0074259814199884E-2</v>
+      </c>
+      <c r="JL103">
+        <v>3.590583600635E-2</v>
+      </c>
+      <c r="JM103">
+        <v>0.13041236704254966</v>
+      </c>
+      <c r="JN103">
+        <v>1.6684766690649999E-2</v>
+      </c>
+      <c r="JO103">
+        <v>2.0653748021550067E-2</v>
+      </c>
+      <c r="JP103">
+        <v>7.769078609012503E-2</v>
+      </c>
+      <c r="JQ103">
+        <v>7.0773347261074759E-2</v>
+      </c>
+      <c r="JR103">
+        <v>5.8522385092225182E-2</v>
+      </c>
+      <c r="JS103">
+        <v>4.9298787860550197E-2</v>
+      </c>
+      <c r="JT103">
+        <v>9.3394105929350157E-2</v>
+      </c>
+      <c r="JU103">
+        <v>0.10240994892865007</v>
+      </c>
+      <c r="JV103">
+        <v>-2.9601772398249793E-2</v>
+      </c>
+      <c r="JW103">
+        <v>5.2326633141875245E-2</v>
+      </c>
+      <c r="JX103">
+        <v>-2.6424221678450044E-2</v>
+      </c>
+      <c r="JY103">
+        <v>0.13372126296757458</v>
+      </c>
+      <c r="JZ103">
+        <v>0.10843538822490006</v>
+      </c>
+      <c r="KA103">
+        <v>0.12906300063487475</v>
+      </c>
+      <c r="KB103">
+        <v>1.289950291134967E-2</v>
+      </c>
+      <c r="KC103">
+        <v>5.9020703099199601E-2</v>
+      </c>
+      <c r="KD103">
+        <v>0.1711724319032002</v>
+      </c>
+      <c r="KE103">
+        <v>-2.9393630125349901E-2</v>
+      </c>
+      <c r="KF103">
+        <v>-6.3918774042549864E-2</v>
+      </c>
+      <c r="KG103">
+        <v>0.13326088823830018</v>
+      </c>
+      <c r="KH103">
+        <v>0.16813492482384973</v>
+      </c>
+      <c r="KI103">
+        <v>2.4370083402375009E-2</v>
+      </c>
+      <c r="KJ103">
+        <v>6.0250182828124998E-2</v>
+      </c>
+      <c r="KK103">
+        <v>0.25706100683264999</v>
+      </c>
+      <c r="KL103">
+        <v>6.7762283460374828E-2</v>
+      </c>
+      <c r="KM103">
+        <v>5.5827438062499901E-2</v>
+      </c>
+      <c r="KN103">
+        <v>3.7256796215124899E-2</v>
+      </c>
+      <c r="KO103">
+        <v>0.11051386332680013</v>
+      </c>
+    </row>
+    <row r="104" spans="1:302" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <f t="shared" ref="B104:N104" si="1">B103*100</f>
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>0.15657514863636202</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>0.74497617093980395</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>0.99572212013008254</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>3.2617734843820356</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="1"/>
+        <v>2.3419467755766865</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="1"/>
+        <v>6.4522460361735146</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="1"/>
+        <v>4.9049405528717838</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="1"/>
+        <v>1.3384015541735739</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="1"/>
+        <v>1.1298654807577524</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="1"/>
+        <v>1.7044982492773197</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="1"/>
+        <v>6.9838172396103904</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="1"/>
+        <v>9.170510591655745</v>
+      </c>
+      <c r="O104">
+        <f t="shared" ref="O104:BZ104" si="2">O103*100</f>
+        <v>4.8373292010621016</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="2"/>
+        <v>4.9266762952117071</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="2"/>
+        <v>8.2187215457969476</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="2"/>
+        <v>14.935226740813579</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="2"/>
+        <v>9.4876267808261296</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="2"/>
+        <v>3.4107405381615052</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="2"/>
+        <v>11.102708385936833</v>
+      </c>
+      <c r="V104">
+        <f t="shared" si="2"/>
+        <v>13.267437475623955</v>
+      </c>
+      <c r="W104">
+        <f t="shared" si="2"/>
+        <v>14.649469176773966</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="2"/>
+        <v>14.441377664818811</v>
+      </c>
+      <c r="Y104">
+        <f t="shared" si="2"/>
+        <v>8.499933572038243</v>
+      </c>
+      <c r="Z104">
+        <f t="shared" si="2"/>
+        <v>11.523426355419719</v>
+      </c>
+      <c r="AA104">
+        <f t="shared" si="2"/>
+        <v>10.836097107555776</v>
+      </c>
+      <c r="AB104">
+        <f t="shared" si="2"/>
+        <v>10.037529330699456</v>
+      </c>
+      <c r="AC104">
+        <f t="shared" si="2"/>
+        <v>7.45257154488983</v>
+      </c>
+      <c r="AD104">
+        <f t="shared" si="2"/>
+        <v>16.697023168585858</v>
+      </c>
+      <c r="AE104">
+        <f t="shared" si="2"/>
+        <v>6.0785149812777162</v>
+      </c>
+      <c r="AF104">
+        <f t="shared" si="2"/>
+        <v>10.449916075669297</v>
+      </c>
+      <c r="AG104">
+        <f t="shared" si="2"/>
+        <v>14.757243582557944</v>
+      </c>
+      <c r="AH104">
+        <f t="shared" si="2"/>
+        <v>6.5028252479429005</v>
+      </c>
+      <c r="AI104">
+        <f t="shared" si="2"/>
+        <v>5.8763797080209956</v>
+      </c>
+      <c r="AJ104">
+        <f t="shared" si="2"/>
+        <v>12.076685590144409</v>
+      </c>
+      <c r="AK104">
+        <f t="shared" si="2"/>
+        <v>8.7382887755502061</v>
+      </c>
+      <c r="AL104">
+        <f t="shared" si="2"/>
+        <v>14.815991798856931</v>
+      </c>
+      <c r="AM104">
+        <f t="shared" si="2"/>
+        <v>8.0213440123809256</v>
+      </c>
+      <c r="AN104">
+        <f t="shared" si="2"/>
+        <v>3.4511949862043867</v>
+      </c>
+      <c r="AO104">
+        <f t="shared" si="2"/>
+        <v>11.511603472772535</v>
+      </c>
+      <c r="AP104">
+        <f t="shared" si="2"/>
+        <v>3.9886177989174154</v>
+      </c>
+      <c r="AQ104">
+        <f t="shared" si="2"/>
+        <v>13.06530868766802</v>
+      </c>
+      <c r="AR104">
+        <f t="shared" si="2"/>
+        <v>6.8730043191657542</v>
+      </c>
+      <c r="AS104">
+        <f t="shared" si="2"/>
+        <v>12.921728276225641</v>
+      </c>
+      <c r="AT104">
+        <f t="shared" si="2"/>
+        <v>14.031469457890978</v>
+      </c>
+      <c r="AU104">
+        <f t="shared" si="2"/>
+        <v>11.054552094532655</v>
+      </c>
+      <c r="AV104">
+        <f t="shared" si="2"/>
+        <v>14.643527187404736</v>
+      </c>
+      <c r="AW104">
+        <f t="shared" si="2"/>
+        <v>10.920665575233613</v>
+      </c>
+      <c r="AX104">
+        <f t="shared" si="2"/>
+        <v>9.4027827216782498</v>
+      </c>
+      <c r="AY104">
+        <f t="shared" si="2"/>
+        <v>6.1593582458692842</v>
+      </c>
+      <c r="AZ104">
+        <f t="shared" si="2"/>
+        <v>4.6384985550874891</v>
+      </c>
+      <c r="BA104">
+        <f t="shared" si="2"/>
+        <v>21.186128555972484</v>
+      </c>
+      <c r="BB104">
+        <f t="shared" si="2"/>
+        <v>7.6390326510874518</v>
+      </c>
+      <c r="BC104">
+        <f t="shared" si="2"/>
+        <v>11.544845173737484</v>
+      </c>
+      <c r="BD104">
+        <f t="shared" si="2"/>
+        <v>8.208113529742489</v>
+      </c>
+      <c r="BE104">
+        <f t="shared" si="2"/>
+        <v>7.6920691582200051</v>
+      </c>
+      <c r="BF104">
+        <f t="shared" si="2"/>
+        <v>13.433366480200037</v>
+      </c>
+      <c r="BG104">
+        <f t="shared" si="2"/>
+        <v>17.884592816419985</v>
+      </c>
+      <c r="BH104">
+        <f t="shared" si="2"/>
+        <v>3.50593493298752</v>
+      </c>
+      <c r="BI104">
+        <f t="shared" si="2"/>
+        <v>11.006651313322502</v>
+      </c>
+      <c r="BJ104">
+        <f t="shared" si="2"/>
+        <v>9.5948339650525405</v>
+      </c>
+      <c r="BK104">
+        <f t="shared" si="2"/>
+        <v>15.447771121069987</v>
+      </c>
+      <c r="BL104">
+        <f t="shared" si="2"/>
+        <v>15.160392332405003</v>
+      </c>
+      <c r="BM104">
+        <f t="shared" si="2"/>
+        <v>8.3993828577875398</v>
+      </c>
+      <c r="BN104">
+        <f t="shared" si="2"/>
+        <v>17.664477189219994</v>
+      </c>
+      <c r="BO104">
+        <f t="shared" si="2"/>
+        <v>5.5003668516825144</v>
+      </c>
+      <c r="BP104">
+        <f t="shared" si="2"/>
+        <v>3.6798756065949734</v>
+      </c>
+      <c r="BQ104">
+        <f t="shared" si="2"/>
+        <v>5.5221791648425</v>
+      </c>
+      <c r="BR104">
+        <f t="shared" si="2"/>
+        <v>8.1018651275849951</v>
+      </c>
+      <c r="BS104">
+        <f t="shared" si="2"/>
+        <v>21.021609200247539</v>
+      </c>
+      <c r="BT104">
+        <f t="shared" si="2"/>
+        <v>13.20895224263252</v>
+      </c>
+      <c r="BU104">
+        <f t="shared" si="2"/>
+        <v>5.3578506859750075</v>
+      </c>
+      <c r="BV104">
+        <f t="shared" si="2"/>
+        <v>9.1288883345300498</v>
+      </c>
+      <c r="BW104">
+        <f t="shared" si="2"/>
+        <v>6.6444519653724665</v>
+      </c>
+      <c r="BX104">
+        <f t="shared" si="2"/>
+        <v>5.4471612039975081</v>
+      </c>
+      <c r="BY104">
+        <f t="shared" si="2"/>
+        <v>4.6248752222899814</v>
+      </c>
+      <c r="BZ104">
+        <f t="shared" si="2"/>
+        <v>9.7184505368350003</v>
+      </c>
+      <c r="CA104">
+        <f t="shared" ref="CA104:EL104" si="3">CA103*100</f>
+        <v>8.0691377872800008</v>
+      </c>
+      <c r="CB104">
+        <f t="shared" si="3"/>
+        <v>12.975347647087476</v>
+      </c>
+      <c r="CC104">
+        <f t="shared" si="3"/>
+        <v>9.9221239047525103</v>
+      </c>
+      <c r="CD104">
+        <f t="shared" si="3"/>
+        <v>1.9514264916175472</v>
+      </c>
+      <c r="CE104">
+        <f t="shared" si="3"/>
+        <v>6.1735464465400236</v>
+      </c>
+      <c r="CF104">
+        <f t="shared" si="3"/>
+        <v>7.074867807504992</v>
+      </c>
+      <c r="CG104">
+        <f t="shared" si="3"/>
+        <v>7.855585836397494</v>
+      </c>
+      <c r="CH104">
+        <f t="shared" si="3"/>
+        <v>2.1899004045250026</v>
+      </c>
+      <c r="CI104">
+        <f t="shared" si="3"/>
+        <v>13.881495263642529</v>
+      </c>
+      <c r="CJ104">
+        <f t="shared" si="3"/>
+        <v>-1.3090141377899989</v>
+      </c>
+      <c r="CK104">
+        <f t="shared" si="3"/>
+        <v>3.343859409269978</v>
+      </c>
+      <c r="CL104">
+        <f t="shared" si="3"/>
+        <v>4.4305765602975278</v>
+      </c>
+      <c r="CM104">
+        <f t="shared" si="3"/>
+        <v>2.01108625373001</v>
+      </c>
+      <c r="CN104">
+        <f t="shared" si="3"/>
+        <v>-1.6541511756524963</v>
+      </c>
+      <c r="CO104">
+        <f t="shared" si="3"/>
+        <v>4.2271260543925049</v>
+      </c>
+      <c r="CP104">
+        <f t="shared" si="3"/>
+        <v>7.6110523989850076</v>
+      </c>
+      <c r="CQ104">
+        <f t="shared" si="3"/>
+        <v>4.8171701671475109</v>
+      </c>
+      <c r="CR104">
+        <f t="shared" si="3"/>
+        <v>2.5066340697925238</v>
+      </c>
+      <c r="CS104">
+        <f t="shared" si="3"/>
+        <v>5.393243813350046</v>
+      </c>
+      <c r="CT104">
+        <f t="shared" si="3"/>
+        <v>4.3853285429449995</v>
+      </c>
+      <c r="CU104">
+        <f t="shared" si="3"/>
+        <v>3.9306974044374998</v>
+      </c>
+      <c r="CV104">
+        <f t="shared" si="3"/>
+        <v>6.642200320172531</v>
+      </c>
+      <c r="CW104">
+        <f t="shared" si="3"/>
+        <v>7.2505376213650274</v>
+      </c>
+      <c r="CX104">
+        <f t="shared" si="3"/>
+        <v>6.7738760450650304</v>
+      </c>
+      <c r="CY104">
+        <f t="shared" si="3"/>
+        <v>-2.1917402566224653</v>
+      </c>
+      <c r="CZ104">
+        <f t="shared" si="3"/>
+        <v>6.8362582102074576</v>
+      </c>
+      <c r="DA104">
+        <f t="shared" si="3"/>
+        <v>10.257631099022513</v>
+      </c>
+      <c r="DB104">
+        <f t="shared" si="3"/>
+        <v>1.7766486049600072</v>
+      </c>
+      <c r="DC104">
+        <f t="shared" si="3"/>
+        <v>18.016433349067441</v>
+      </c>
+      <c r="DD104">
+        <f t="shared" si="3"/>
+        <v>-5.1172314643124768</v>
+      </c>
+      <c r="DE104">
+        <f t="shared" si="3"/>
+        <v>-3.3120598697449544</v>
+      </c>
+      <c r="DF104">
+        <f t="shared" si="3"/>
+        <v>3.1469588944549987</v>
+      </c>
+      <c r="DG104">
+        <f t="shared" si="3"/>
+        <v>0.63132623158503876</v>
+      </c>
+      <c r="DH104">
+        <f t="shared" si="3"/>
+        <v>2.1827731003724704</v>
+      </c>
+      <c r="DI104">
+        <f t="shared" si="3"/>
+        <v>8.6225894608350284</v>
+      </c>
+      <c r="DJ104">
+        <f t="shared" si="3"/>
+        <v>4.2213025828500061</v>
+      </c>
+      <c r="DK104">
+        <f t="shared" si="3"/>
+        <v>-2.35790667034248</v>
+      </c>
+      <c r="DL104">
+        <f t="shared" si="3"/>
+        <v>4.8344313833325048</v>
+      </c>
+      <c r="DM104">
+        <f t="shared" si="3"/>
+        <v>-1.3856658941550082</v>
+      </c>
+      <c r="DN104">
+        <f t="shared" si="3"/>
+        <v>8.1249474222899956</v>
+      </c>
+      <c r="DO104">
+        <f t="shared" si="3"/>
+        <v>-1.6659843470825053</v>
+      </c>
+      <c r="DP104">
+        <f t="shared" si="3"/>
+        <v>5.6252848305975434</v>
+      </c>
+      <c r="DQ104">
+        <f t="shared" si="3"/>
+        <v>4.9075046563800351</v>
+      </c>
+      <c r="DR104">
+        <f t="shared" si="3"/>
+        <v>4.3712615637900409</v>
+      </c>
+      <c r="DS104">
+        <f t="shared" si="3"/>
+        <v>6.3713774279924973</v>
+      </c>
+      <c r="DT104">
+        <f t="shared" si="3"/>
+        <v>7.676607018227477</v>
+      </c>
+      <c r="DU104">
+        <f t="shared" si="3"/>
+        <v>6.2093672326124949</v>
+      </c>
+      <c r="DV104">
+        <f t="shared" si="3"/>
+        <v>12.877958698737512</v>
+      </c>
+      <c r="DW104">
+        <f t="shared" si="3"/>
+        <v>9.2578333333450011</v>
+      </c>
+      <c r="DX104">
+        <f t="shared" si="3"/>
+        <v>5.4355513724700044</v>
+      </c>
+      <c r="DY104">
+        <f t="shared" si="3"/>
+        <v>6.2990148374549859</v>
+      </c>
+      <c r="DZ104">
+        <f t="shared" si="3"/>
+        <v>2.7346015361850107</v>
+      </c>
+      <c r="EA104">
+        <f t="shared" si="3"/>
+        <v>6.2769760442075162</v>
+      </c>
+      <c r="EB104">
+        <f t="shared" si="3"/>
+        <v>2.9857354701625427</v>
+      </c>
+      <c r="EC104">
+        <f t="shared" si="3"/>
+        <v>0.82180994090754744</v>
+      </c>
+      <c r="ED104">
+        <f t="shared" si="3"/>
+        <v>4.0761423507025274</v>
+      </c>
+      <c r="EE104">
+        <f t="shared" si="3"/>
+        <v>5.0449578194950329</v>
+      </c>
+      <c r="EF104">
+        <f t="shared" si="3"/>
+        <v>-0.77316742880751965</v>
+      </c>
+      <c r="EG104">
+        <f t="shared" si="3"/>
+        <v>0.38404691023752324</v>
+      </c>
+      <c r="EH104">
+        <f t="shared" si="3"/>
+        <v>8.4748209305874909</v>
+      </c>
+      <c r="EI104">
+        <f t="shared" si="3"/>
+        <v>8.3592793358524773</v>
+      </c>
+      <c r="EJ104">
+        <f t="shared" si="3"/>
+        <v>12.632537132557498</v>
+      </c>
+      <c r="EK104">
+        <f t="shared" si="3"/>
+        <v>5.1450564655050046</v>
+      </c>
+      <c r="EL104">
+        <f t="shared" si="3"/>
+        <v>1.4555485661649881</v>
+      </c>
+      <c r="EM104">
+        <f t="shared" ref="EM104:GX104" si="4">EM103*100</f>
+        <v>-2.3879335172050098</v>
+      </c>
+      <c r="EN104">
+        <f t="shared" si="4"/>
+        <v>2.6214859679199787</v>
+      </c>
+      <c r="EO104">
+        <f t="shared" si="4"/>
+        <v>9.7176994861624788</v>
+      </c>
+      <c r="EP104">
+        <f t="shared" si="4"/>
+        <v>0.66217630539751049</v>
+      </c>
+      <c r="EQ104">
+        <f t="shared" si="4"/>
+        <v>11.206171959667532</v>
+      </c>
+      <c r="ER104">
+        <f t="shared" si="4"/>
+        <v>5.8417780271675213</v>
+      </c>
+      <c r="ES104">
+        <f t="shared" si="4"/>
+        <v>1.4211000945349994</v>
+      </c>
+      <c r="ET104">
+        <f t="shared" si="4"/>
+        <v>10.59321135451501</v>
+      </c>
+      <c r="EU104">
+        <f t="shared" si="4"/>
+        <v>9.3969939775575106</v>
+      </c>
+      <c r="EV104">
+        <f t="shared" si="4"/>
+        <v>11.527250476759999</v>
+      </c>
+      <c r="EW104">
+        <f t="shared" si="4"/>
+        <v>-8.5693922766925326</v>
+      </c>
+      <c r="EX104">
+        <f t="shared" si="4"/>
+        <v>9.7868136560949957</v>
+      </c>
+      <c r="EY104">
+        <f t="shared" si="4"/>
+        <v>4.8939276103299845</v>
+      </c>
+      <c r="EZ104">
+        <f t="shared" si="4"/>
+        <v>0.95910195436250678</v>
+      </c>
+      <c r="FA104">
+        <f t="shared" si="4"/>
+        <v>-0.59729767694998159</v>
+      </c>
+      <c r="FB104">
+        <f t="shared" si="4"/>
+        <v>12.565759120190023</v>
+      </c>
+      <c r="FC104">
+        <f t="shared" si="4"/>
+        <v>5.1588256915075181</v>
+      </c>
+      <c r="FD104">
+        <f t="shared" si="4"/>
+        <v>-2.5073893940949943</v>
+      </c>
+      <c r="FE104">
+        <f t="shared" si="4"/>
+        <v>5.7861934243524926</v>
+      </c>
+      <c r="FF104">
+        <f t="shared" si="4"/>
+        <v>4.201057293485011</v>
+      </c>
+      <c r="FG104">
+        <f t="shared" si="4"/>
+        <v>-0.41163328741748995</v>
+      </c>
+      <c r="FH104">
+        <f t="shared" si="4"/>
+        <v>2.26402158096497</v>
+      </c>
+      <c r="FI104">
+        <f t="shared" si="4"/>
+        <v>-1.9922480114074714</v>
+      </c>
+      <c r="FJ104">
+        <f t="shared" si="4"/>
+        <v>1.0986180679899871</v>
+      </c>
+      <c r="FK104">
+        <f t="shared" si="4"/>
+        <v>-1.1823869952450217</v>
+      </c>
+      <c r="FL104">
+        <f t="shared" si="4"/>
+        <v>6.7334356103899706</v>
+      </c>
+      <c r="FM104">
+        <f t="shared" si="4"/>
+        <v>2.570432691005009</v>
+      </c>
+      <c r="FN104">
+        <f t="shared" si="4"/>
+        <v>7.4270415550899749</v>
+      </c>
+      <c r="FO104">
+        <f t="shared" si="4"/>
+        <v>5.5651684759224995</v>
+      </c>
+      <c r="FP104">
+        <f t="shared" si="4"/>
+        <v>3.0601147749575119</v>
+      </c>
+      <c r="FQ104">
+        <f t="shared" si="4"/>
+        <v>-0.36991935758999839</v>
+      </c>
+      <c r="FR104">
+        <f t="shared" si="4"/>
+        <v>-3.7524614971874981</v>
+      </c>
+      <c r="FS104">
+        <f t="shared" si="4"/>
+        <v>0.7001277251099669</v>
+      </c>
+      <c r="FT104">
+        <f t="shared" si="4"/>
+        <v>6.8039261224425163</v>
+      </c>
+      <c r="FU104">
+        <f t="shared" si="4"/>
+        <v>5.6853160059149754</v>
+      </c>
+      <c r="FV104">
+        <f t="shared" si="4"/>
+        <v>7.3684141626175093</v>
+      </c>
+      <c r="FW104">
+        <f t="shared" si="4"/>
+        <v>-1.90331908854251</v>
+      </c>
+      <c r="FX104">
+        <f t="shared" si="4"/>
+        <v>3.710495894867516</v>
+      </c>
+      <c r="FY104">
+        <f t="shared" si="4"/>
+        <v>8.4376952779899881</v>
+      </c>
+      <c r="FZ104">
+        <f t="shared" si="4"/>
+        <v>-0.95607757842000041</v>
+      </c>
+      <c r="GA104">
+        <f t="shared" si="4"/>
+        <v>5.0351447601200139</v>
+      </c>
+      <c r="GB104">
+        <f t="shared" si="4"/>
+        <v>13.969440834522517</v>
+      </c>
+      <c r="GC104">
+        <f t="shared" si="4"/>
+        <v>10.831708142630013</v>
+      </c>
+      <c r="GD104">
+        <f t="shared" si="4"/>
+        <v>2.004122011997489</v>
+      </c>
+      <c r="GE104">
+        <f t="shared" si="4"/>
+        <v>7.2444240906974766</v>
+      </c>
+      <c r="GF104">
+        <f t="shared" si="4"/>
+        <v>-8.5157314926724741</v>
+      </c>
+      <c r="GG104">
+        <f t="shared" si="4"/>
+        <v>6.8976426155175297</v>
+      </c>
+      <c r="GH104">
+        <f t="shared" si="4"/>
+        <v>5.7965641009699587</v>
+      </c>
+      <c r="GI104">
+        <f t="shared" si="4"/>
+        <v>-1.7085589742599994</v>
+      </c>
+      <c r="GJ104">
+        <f t="shared" si="4"/>
+        <v>3.4205744561949913</v>
+      </c>
+      <c r="GK104">
+        <f t="shared" si="4"/>
+        <v>5.7970426200774972</v>
+      </c>
+      <c r="GL104">
+        <f t="shared" si="4"/>
+        <v>4.0769994354800332</v>
+      </c>
+      <c r="GM104">
+        <f t="shared" si="4"/>
+        <v>4.0478262954075195</v>
+      </c>
+      <c r="GN104">
+        <f t="shared" si="4"/>
+        <v>-0.11171029656502629</v>
+      </c>
+      <c r="GO104">
+        <f t="shared" si="4"/>
+        <v>1.6077277270424961</v>
+      </c>
+      <c r="GP104">
+        <f t="shared" si="4"/>
+        <v>11.005486969860012</v>
+      </c>
+      <c r="GQ104">
+        <f t="shared" si="4"/>
+        <v>0.72614257274250527</v>
+      </c>
+      <c r="GR104">
+        <f t="shared" si="4"/>
+        <v>-2.9362518634975077</v>
+      </c>
+      <c r="GS104">
+        <f t="shared" si="4"/>
+        <v>-3.7981164054825323</v>
+      </c>
+      <c r="GT104">
+        <f t="shared" si="4"/>
+        <v>6.9550103600375168</v>
+      </c>
+      <c r="GU104">
+        <f t="shared" si="4"/>
+        <v>3.9043118999925408</v>
+      </c>
+      <c r="GV104">
+        <f t="shared" si="4"/>
+        <v>5.0194412420599965</v>
+      </c>
+      <c r="GW104">
+        <f t="shared" si="4"/>
+        <v>0.13881463771499014</v>
+      </c>
+      <c r="GX104">
+        <f t="shared" si="4"/>
+        <v>15.276748839502519</v>
+      </c>
+      <c r="GY104">
+        <f t="shared" ref="GY104:JJ104" si="5">GY103*100</f>
+        <v>5.9720413029874964</v>
+      </c>
+      <c r="GZ104">
+        <f t="shared" si="5"/>
+        <v>8.8244041939799835</v>
+      </c>
+      <c r="HA104">
+        <f t="shared" si="5"/>
+        <v>-2.7006863612624832</v>
+      </c>
+      <c r="HB104">
+        <f t="shared" si="5"/>
+        <v>-8.2281766120874895</v>
+      </c>
+      <c r="HC104">
+        <f t="shared" si="5"/>
+        <v>-3.1813437078949791</v>
+      </c>
+      <c r="HD104">
+        <f t="shared" si="5"/>
+        <v>6.6039390214500227</v>
+      </c>
+      <c r="HE104">
+        <f t="shared" si="5"/>
+        <v>5.4150387538849376</v>
+      </c>
+      <c r="HF104">
+        <f t="shared" si="5"/>
+        <v>-1.6229512131950008</v>
+      </c>
+      <c r="HG104">
+        <f t="shared" si="5"/>
+        <v>3.6137376790299935</v>
+      </c>
+      <c r="HH104">
+        <f t="shared" si="5"/>
+        <v>8.5405017776424952</v>
+      </c>
+      <c r="HI104">
+        <f t="shared" si="5"/>
+        <v>10.382057119089971</v>
+      </c>
+      <c r="HJ104">
+        <f t="shared" si="5"/>
+        <v>0.25021561280751392</v>
+      </c>
+      <c r="HK104">
+        <f t="shared" si="5"/>
+        <v>10.451288175362494</v>
+      </c>
+      <c r="HL104">
+        <f t="shared" si="5"/>
+        <v>5.5216617618124797</v>
+      </c>
+      <c r="HM104">
+        <f t="shared" si="5"/>
+        <v>21.031158802404981</v>
+      </c>
+      <c r="HN104">
+        <f t="shared" si="5"/>
+        <v>4.851839186785023</v>
+      </c>
+      <c r="HO104">
+        <f t="shared" si="5"/>
+        <v>11.568151889115018</v>
+      </c>
+      <c r="HP104">
+        <f t="shared" si="5"/>
+        <v>3.7674103023600081</v>
+      </c>
+      <c r="HQ104">
+        <f t="shared" si="5"/>
+        <v>3.5974342127625292</v>
+      </c>
+      <c r="HR104">
+        <f t="shared" si="5"/>
+        <v>-1.5732453744575103</v>
+      </c>
+      <c r="HS104">
+        <f t="shared" si="5"/>
+        <v>4.9056242601200006</v>
+      </c>
+      <c r="HT104">
+        <f t="shared" si="5"/>
+        <v>12.190396359597489</v>
+      </c>
+      <c r="HU104">
+        <f t="shared" si="5"/>
+        <v>-0.83450191598748447</v>
+      </c>
+      <c r="HV104">
+        <f t="shared" si="5"/>
+        <v>15.151242446672475</v>
+      </c>
+      <c r="HW104">
+        <f t="shared" si="5"/>
+        <v>2.1008807621200054</v>
+      </c>
+      <c r="HX104">
+        <f t="shared" si="5"/>
+        <v>1.7324210933474804</v>
+      </c>
+      <c r="HY104">
+        <f t="shared" si="5"/>
+        <v>34.489827524402486</v>
+      </c>
+      <c r="HZ104">
+        <f t="shared" si="5"/>
+        <v>15.395321325345002</v>
+      </c>
+      <c r="IA104">
+        <f t="shared" si="5"/>
+        <v>18.120105304222498</v>
+      </c>
+      <c r="IB104">
+        <f t="shared" si="5"/>
+        <v>12.159281998952531</v>
+      </c>
+      <c r="IC104">
+        <f t="shared" si="5"/>
+        <v>8.992785760572497</v>
+      </c>
+      <c r="ID104">
+        <f t="shared" si="5"/>
+        <v>4.0400070602099936</v>
+      </c>
+      <c r="IE104">
+        <f t="shared" si="5"/>
+        <v>7.2572253872325021</v>
+      </c>
+      <c r="IF104">
+        <f t="shared" si="5"/>
+        <v>4.8427121253324934</v>
+      </c>
+      <c r="IG104">
+        <f t="shared" si="5"/>
+        <v>5.9133085469275315</v>
+      </c>
+      <c r="IH104">
+        <f t="shared" si="5"/>
+        <v>1.2623802930275208</v>
+      </c>
+      <c r="II104">
+        <f t="shared" si="5"/>
+        <v>1.7181851210975152</v>
+      </c>
+      <c r="IJ104">
+        <f t="shared" si="5"/>
+        <v>15.815374974312491</v>
+      </c>
+      <c r="IK104">
+        <f t="shared" si="5"/>
+        <v>0.11106040509250015</v>
+      </c>
+      <c r="IL104">
+        <f t="shared" si="5"/>
+        <v>-5.2063394511700505</v>
+      </c>
+      <c r="IM104">
+        <f t="shared" si="5"/>
+        <v>4.4553602701574935</v>
+      </c>
+      <c r="IN104">
+        <f t="shared" si="5"/>
+        <v>-1.3251513423825023</v>
+      </c>
+      <c r="IO104">
+        <f t="shared" si="5"/>
+        <v>-1.285230252305003</v>
+      </c>
+      <c r="IP104">
+        <f t="shared" si="5"/>
+        <v>7.5822515091800158</v>
+      </c>
+      <c r="IQ104">
+        <f t="shared" si="5"/>
+        <v>4.8753018534649861</v>
+      </c>
+      <c r="IR104">
+        <f t="shared" si="5"/>
+        <v>-0.38372291347752441</v>
+      </c>
+      <c r="IS104">
+        <f t="shared" si="5"/>
+        <v>8.7108863542650017</v>
+      </c>
+      <c r="IT104">
+        <f t="shared" si="5"/>
+        <v>8.5130212902874369</v>
+      </c>
+      <c r="IU104">
+        <f t="shared" si="5"/>
+        <v>9.8451945931574691</v>
+      </c>
+      <c r="IV104">
+        <f t="shared" si="5"/>
+        <v>11.424262653932482</v>
+      </c>
+      <c r="IW104">
+        <f t="shared" si="5"/>
+        <v>3.6791641366274996</v>
+      </c>
+      <c r="IX104">
+        <f t="shared" si="5"/>
+        <v>0.84197218915749161</v>
+      </c>
+      <c r="IY104">
+        <f t="shared" si="5"/>
+        <v>4.2544319313800205</v>
+      </c>
+      <c r="IZ104">
+        <f t="shared" si="5"/>
+        <v>-4.6720635662174992</v>
+      </c>
+      <c r="JA104">
+        <f t="shared" si="5"/>
+        <v>15.519509889392523</v>
+      </c>
+      <c r="JB104">
+        <f t="shared" si="5"/>
+        <v>7.1746544104624999</v>
+      </c>
+      <c r="JC104">
+        <f t="shared" si="5"/>
+        <v>3.6696144180799806</v>
+      </c>
+      <c r="JD104">
+        <f t="shared" si="5"/>
+        <v>0.58520185245503065</v>
+      </c>
+      <c r="JE104">
+        <f t="shared" si="5"/>
+        <v>2.2254981243450045</v>
+      </c>
+      <c r="JF104">
+        <f t="shared" si="5"/>
+        <v>2.4426285558649896</v>
+      </c>
+      <c r="JG104">
+        <f t="shared" si="5"/>
+        <v>8.7191210163249941</v>
+      </c>
+      <c r="JH104">
+        <f t="shared" si="5"/>
+        <v>-0.44491400609253384</v>
+      </c>
+      <c r="JI104">
+        <f t="shared" si="5"/>
+        <v>1.8788309653074986</v>
+      </c>
+      <c r="JJ104">
+        <f t="shared" si="5"/>
+        <v>-3.0743299254800016</v>
+      </c>
+      <c r="JK104">
+        <f t="shared" ref="JK104:KP104" si="6">JK103*100</f>
+        <v>5.0074259814199884</v>
+      </c>
+      <c r="JL104">
+        <f t="shared" si="6"/>
+        <v>3.590583600635</v>
+      </c>
+      <c r="JM104">
+        <f t="shared" si="6"/>
+        <v>13.041236704254967</v>
+      </c>
+      <c r="JN104">
+        <f t="shared" si="6"/>
+        <v>1.6684766690649999</v>
+      </c>
+      <c r="JO104">
+        <f t="shared" si="6"/>
+        <v>2.0653748021550067</v>
+      </c>
+      <c r="JP104">
+        <f t="shared" si="6"/>
+        <v>7.769078609012503</v>
+      </c>
+      <c r="JQ104">
+        <f t="shared" si="6"/>
+        <v>7.0773347261074759</v>
+      </c>
+      <c r="JR104">
+        <f t="shared" si="6"/>
+        <v>5.8522385092225182</v>
+      </c>
+      <c r="JS104">
+        <f t="shared" si="6"/>
+        <v>4.9298787860550197</v>
+      </c>
+      <c r="JT104">
+        <f t="shared" si="6"/>
+        <v>9.3394105929350157</v>
+      </c>
+      <c r="JU104">
+        <f t="shared" si="6"/>
+        <v>10.240994892865007</v>
+      </c>
+      <c r="JV104">
+        <f t="shared" si="6"/>
+        <v>-2.9601772398249793</v>
+      </c>
+      <c r="JW104">
+        <f t="shared" si="6"/>
+        <v>5.2326633141875245</v>
+      </c>
+      <c r="JX104">
+        <f t="shared" si="6"/>
+        <v>-2.6424221678450044</v>
+      </c>
+      <c r="JY104">
+        <f t="shared" si="6"/>
+        <v>13.372126296757457</v>
+      </c>
+      <c r="JZ104">
+        <f t="shared" si="6"/>
+        <v>10.843538822490007</v>
+      </c>
+      <c r="KA104">
+        <f t="shared" si="6"/>
+        <v>12.906300063487475</v>
+      </c>
+      <c r="KB104">
+        <f t="shared" si="6"/>
+        <v>1.289950291134967</v>
+      </c>
+      <c r="KC104">
+        <f t="shared" si="6"/>
+        <v>5.9020703099199601</v>
+      </c>
+      <c r="KD104">
+        <f t="shared" si="6"/>
+        <v>17.117243190320018</v>
+      </c>
+      <c r="KE104">
+        <f t="shared" si="6"/>
+        <v>-2.9393630125349901</v>
+      </c>
+      <c r="KF104">
+        <f t="shared" si="6"/>
+        <v>-6.391877404254986</v>
+      </c>
+      <c r="KG104">
+        <f t="shared" si="6"/>
+        <v>13.326088823830018</v>
+      </c>
+      <c r="KH104">
+        <f t="shared" si="6"/>
+        <v>16.813492482384973</v>
+      </c>
+      <c r="KI104">
+        <f t="shared" si="6"/>
+        <v>2.4370083402375009</v>
+      </c>
+      <c r="KJ104">
+        <f t="shared" si="6"/>
+        <v>6.0250182828124998</v>
+      </c>
+      <c r="KK104">
+        <f t="shared" si="6"/>
+        <v>25.706100683264999</v>
+      </c>
+      <c r="KL104">
+        <f t="shared" si="6"/>
+        <v>6.7762283460374828</v>
+      </c>
+      <c r="KM104">
+        <f t="shared" si="6"/>
+        <v>5.5827438062499901</v>
+      </c>
+      <c r="KN104">
+        <f t="shared" si="6"/>
+        <v>3.7256796215124899</v>
+      </c>
+      <c r="KO104">
+        <f t="shared" si="6"/>
+        <v>11.051386332680014</v>
+      </c>
+      <c r="KP104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
